--- a/biology/Zoologie/Dibamus_floweri/Dibamus_floweri.xlsx
+++ b/biology/Zoologie/Dibamus_floweri/Dibamus_floweri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dibamus floweri est une espèce de sauriens de la famille des Dibamidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Dibamus floweri a été décrite en 2017 par Evan S. H. Quah (d), Shahrul Anuar (d), Larry Lee Grismer et Rupert Grassby-Lewis (d).
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans les montagnes de la Malaisie péninsulaire au sein de la Chaîne Tenasserim.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Semblable à un ver ou à un serpent, il s'agit d'un lézard sans pattes (atrophiées pour les mâles).
 Ses yeux, sa bouche et ses narines sont recouvertes par une couche d'écailles.
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Evan Quah, Shahrul Anuar, Larry Lee Grismer &amp; Rupert Grassby-Lewis, « A new species of Dibamus Duméril &amp; Bibron 1839 (Squamata: Dibamidae) from a hill station in Peninsular Malaysia », Raffles Bulletin of Zoology, vol. 65, 2017, p. 681–690 (lire en ligne)</t>
         </is>
